--- a/source.xlsx
+++ b/source.xlsx
@@ -268,13 +268,13 @@
   <sheetData>
     <row r="5">
       <c r="E5" s="1">
-        <v>90342.0</v>
+        <v>11111.0</v>
       </c>
       <c r="F5" s="1">
-        <v>90342.0</v>
+        <v>11111.0</v>
       </c>
       <c r="G5" s="1">
-        <v>90342.0</v>
+        <v>11111.0</v>
       </c>
     </row>
     <row r="6">
